--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmachrao\OneDrive - Capgemini\Desktop\MavenVersionProject\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5161CC-1ABF-4B67-8DCF-88D81023194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5C386-1F8E-4C70-9357-4071CFA209B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1DE7C72E-5531-4BEB-9920-1994EEA1C598}"/>
+    <workbookView xWindow="4800" yWindow="490" windowWidth="14400" windowHeight="7360" xr2:uid="{1DE7C72E-5531-4BEB-9920-1994EEA1C598}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>3case1</t>
   </si>
   <si>
-    <t>poeigrp54149@yopmail.com</t>
-  </si>
-  <si>
     <t>poeigrp1454@yopmail.com</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>kkmjih3à)tjh</t>
+  </si>
+  <si>
+    <t>ABcpoeijcvjddjogrp2@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -445,9 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0942F0-A223-4B14-A71B-7B7753B63DA3}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -456,15 +454,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -472,7 +470,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -480,7 +478,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -504,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72370D8D-4B29-4B2B-B1C3-DD15C0387A79}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -538,10 +536,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
